--- a/UART_Raspberry_STM_file/Raspberry_STM_frame.xlsx
+++ b/UART_Raspberry_STM_file/Raspberry_STM_frame.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
